--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/iwr_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -978,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -994,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -1010,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
@@ -1026,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -1034,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -1042,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -1050,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -1058,7 +1058,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1066,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -1074,7 +1074,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -1082,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1090,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -1098,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1106,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -1114,7 +1114,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -1130,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1138,7 +1138,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1146,7 +1146,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -1154,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1162,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1170,7 +1170,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -1178,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1363,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1387,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1427,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1443,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -1459,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1467,7 +1467,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1475,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1483,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -1499,7 +1499,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1515,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1523,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -1539,7 +1539,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -1547,7 +1547,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -1555,7 +1555,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -1563,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -1571,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -1579,7 +1579,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -1587,7 +1587,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1595,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -1603,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -1611,7 +1611,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1619,7 +1619,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1635,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -1643,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -1651,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -1659,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -1828,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1852,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +1876,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1884,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1900,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1908,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1916,7 +1916,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1924,7 +1924,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1932,7 +1932,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1948,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -1956,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -1964,7 +1964,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1972,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +1980,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -1988,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -1996,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -2004,7 +2004,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -2012,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -2020,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -2028,7 +2028,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -2036,7 +2036,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -2044,7 +2044,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2052,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -2060,7 +2060,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -2068,7 +2068,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -2076,7 +2076,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -2084,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -2092,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -2100,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -2108,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -2116,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -2124,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -2132,7 +2132,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -2140,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -2317,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -2325,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2333,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2341,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -2349,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -2357,7 +2357,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2365,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -2373,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -2381,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -2405,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -2413,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -2421,7 +2421,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -2429,7 +2429,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -2437,7 +2437,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -2445,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -2453,7 +2453,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -2461,7 +2461,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -2469,7 +2469,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -2477,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -2485,7 +2485,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -2493,7 +2493,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -2501,7 +2501,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -2509,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -2517,7 +2517,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -2525,7 +2525,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -2533,7 +2533,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -2541,7 +2541,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -2549,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -2557,7 +2557,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -2565,7 +2565,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -2573,7 +2573,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -2581,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -2589,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -2597,7 +2597,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -2605,7 +2605,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -2613,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -2798,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2806,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -2830,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -2838,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2846,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2854,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -2862,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2870,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -2878,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -2886,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -2894,7 +2894,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -2902,7 +2902,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -2910,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -2918,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -2926,7 +2926,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -2934,7 +2934,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -2942,7 +2942,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -2950,7 +2950,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -2958,7 +2958,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -2966,7 +2966,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -2974,7 +2974,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -2982,7 +2982,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -2990,7 +2990,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -2998,7 +2998,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -3006,7 +3006,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -3014,7 +3014,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -3022,7 +3022,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -3038,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -3046,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -3054,7 +3054,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -3062,7 +3062,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -3070,7 +3070,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -3078,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -3086,7 +3086,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -3094,7 +3094,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
@@ -3271,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -3279,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -3295,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -3303,7 +3303,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -3319,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -3327,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -3335,7 +3335,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -3343,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -3351,7 +3351,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -3359,7 +3359,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -3375,7 +3375,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3383,7 +3383,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -3391,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -3399,7 +3399,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3407,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
@@ -3415,7 +3415,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -3423,7 +3423,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -3431,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -3439,7 +3439,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
@@ -3447,7 +3447,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -3455,7 +3455,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -3463,7 +3463,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -3471,7 +3471,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -3479,7 +3479,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -3487,7 +3487,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -3495,7 +3495,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -3503,7 +3503,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -3511,7 +3511,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -3519,7 +3519,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -3527,7 +3527,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -3535,7 +3535,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -3543,7 +3543,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -3559,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -3567,7 +3567,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -3752,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -3760,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -3768,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -3776,7 +3776,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -3784,7 +3784,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -3792,7 +3792,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -3800,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -3808,7 +3808,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -3816,7 +3816,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -3824,7 +3824,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -3832,7 +3832,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -3840,7 +3840,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -3848,7 +3848,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -3856,7 +3856,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3864,7 +3864,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -3872,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -3880,7 +3880,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -3888,7 +3888,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -3896,7 +3896,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -3904,7 +3904,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -3912,7 +3912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -3920,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
@@ -3928,7 +3928,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -3936,7 +3936,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -3944,7 +3944,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -3952,7 +3952,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -3960,7 +3960,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -3968,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -3976,7 +3976,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -3984,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -3992,7 +3992,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -4000,7 +4000,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -4008,7 +4008,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -4016,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -4024,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -4032,7 +4032,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4040,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -4048,7 +4048,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -4233,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -4241,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -4249,7 +4249,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -4257,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -4265,7 +4265,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -4273,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
@@ -4281,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -4289,7 +4289,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -4297,7 +4297,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -4305,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -4313,7 +4313,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -4321,7 +4321,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -4329,7 +4329,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4337,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -4345,7 +4345,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -4361,7 +4361,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -4369,7 +4369,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -4377,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -4385,7 +4385,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -4393,7 +4393,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4401,7 +4401,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
@@ -4409,7 +4409,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4417,7 +4417,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -4425,7 +4425,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -4433,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -4441,7 +4441,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
@@ -4449,7 +4449,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -4457,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -4465,7 +4465,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -4473,7 +4473,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -4481,7 +4481,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -4489,7 +4489,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -4497,7 +4497,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -4505,7 +4505,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44">
@@ -4513,7 +4513,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -4722,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -4730,7 +4730,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -4738,7 +4738,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -4746,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -4754,7 +4754,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -4762,7 +4762,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -4770,7 +4770,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -4778,7 +4778,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -4786,7 +4786,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -4794,7 +4794,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -4802,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -4810,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -4818,7 +4818,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -4826,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -4834,7 +4834,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -4842,7 +4842,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -4850,7 +4850,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -4858,7 +4858,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -4866,7 +4866,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -4882,7 +4882,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -4898,7 +4898,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -4906,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -4914,7 +4914,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
@@ -4930,7 +4930,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -4938,7 +4938,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -4946,7 +4946,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -4954,7 +4954,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -4962,7 +4962,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -4970,7 +4970,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -4978,7 +4978,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -4986,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45">
@@ -4994,7 +4994,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -5002,7 +5002,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -5010,7 +5010,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -5203,7 +5203,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -5211,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -5219,7 +5219,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -5227,7 +5227,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -5235,7 +5235,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -5243,7 +5243,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -5251,7 +5251,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -5259,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -5275,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -5307,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -5315,7 +5315,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -5323,7 +5323,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -5331,7 +5331,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -5339,7 +5339,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -5355,7 +5355,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -5371,7 +5371,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5379,7 +5379,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5411,7 +5411,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -5419,7 +5419,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -5427,7 +5427,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5435,7 +5435,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -5443,7 +5443,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -5451,7 +5451,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -5459,7 +5459,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -5467,7 +5467,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -5475,7 +5475,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -5483,7 +5483,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -5620,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -5628,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -5636,7 +5636,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -5644,7 +5644,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -5652,7 +5652,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -5660,7 +5660,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -5668,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -5676,7 +5676,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -5684,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -5692,7 +5692,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -5700,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -5708,7 +5708,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -5716,7 +5716,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -5724,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -5732,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -5748,7 +5748,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -5756,7 +5756,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -5764,7 +5764,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -5772,7 +5772,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -5780,7 +5780,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -5788,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -5796,7 +5796,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -5804,7 +5804,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -5812,7 +5812,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -5820,7 +5820,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -5828,7 +5828,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -5836,7 +5836,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -5844,7 +5844,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -6173,7 +6173,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -6181,7 +6181,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -6189,7 +6189,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -6197,7 +6197,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -6213,7 +6213,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -6221,7 +6221,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -6229,7 +6229,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -6237,7 +6237,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -6245,7 +6245,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -6253,7 +6253,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -6261,7 +6261,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -6269,7 +6269,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -6277,7 +6277,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -6285,7 +6285,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -6293,7 +6293,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -6301,7 +6301,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -6309,7 +6309,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -6317,7 +6317,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -6325,7 +6325,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -6333,7 +6333,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -6349,7 +6349,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -6357,7 +6357,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
@@ -6365,7 +6365,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -6373,7 +6373,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -6381,7 +6381,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -6389,7 +6389,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -6397,7 +6397,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -6405,7 +6405,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -6413,7 +6413,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -6421,7 +6421,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -6429,7 +6429,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -6437,7 +6437,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -6445,7 +6445,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -6453,7 +6453,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -6461,7 +6461,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -6469,7 +6469,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
@@ -6477,7 +6477,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -6485,7 +6485,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
@@ -6493,7 +6493,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -6501,7 +6501,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -6558,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -6566,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -6574,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -6582,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -6590,7 +6590,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -6598,7 +6598,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -6606,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -6614,7 +6614,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -6622,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -6630,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -6638,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -6646,7 +6646,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -6654,7 +6654,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -6662,7 +6662,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -6670,7 +6670,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -6678,7 +6678,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -6686,7 +6686,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -6694,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -6702,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -6710,7 +6710,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -6718,7 +6718,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -6726,7 +6726,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -6734,7 +6734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -6742,7 +6742,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
@@ -6750,7 +6750,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -6758,7 +6758,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -6766,7 +6766,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -6774,7 +6774,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -6782,7 +6782,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -6790,7 +6790,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -6798,7 +6798,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -7031,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -7039,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -7047,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -7055,7 +7055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -7063,7 +7063,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -7071,7 +7071,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -7079,7 +7079,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -7087,7 +7087,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -7095,7 +7095,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -7103,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -7111,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -7119,7 +7119,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -7127,7 +7127,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -7135,7 +7135,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -7143,7 +7143,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -7151,7 +7151,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -7159,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -7167,7 +7167,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -7175,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -7183,7 +7183,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -7191,7 +7191,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -7199,7 +7199,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -7207,7 +7207,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -7215,7 +7215,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -7223,7 +7223,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -7231,7 +7231,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -7239,7 +7239,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -7247,7 +7247,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -7255,7 +7255,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -7263,7 +7263,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -7271,7 +7271,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -7279,7 +7279,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
@@ -7287,7 +7287,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -7496,7 +7496,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -7504,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -7512,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -7520,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -7528,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -7536,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -7544,7 +7544,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -7552,7 +7552,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -7560,7 +7560,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -7568,7 +7568,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -7576,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -7584,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -7592,7 +7592,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -7600,7 +7600,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -7608,7 +7608,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -7616,7 +7616,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -7624,7 +7624,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -7632,7 +7632,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -7640,7 +7640,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -7648,7 +7648,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -7656,7 +7656,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -7664,7 +7664,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -7672,7 +7672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -7680,7 +7680,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -7688,7 +7688,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -7696,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -7704,7 +7704,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -7712,7 +7712,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -7720,7 +7720,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -7728,7 +7728,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -7736,7 +7736,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -7744,7 +7744,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -7752,7 +7752,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -7760,7 +7760,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -7768,7 +7768,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -7977,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -7985,7 +7985,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -7993,7 +7993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -8001,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -8009,7 +8009,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -8017,7 +8017,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -8025,7 +8025,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -8033,7 +8033,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -8041,7 +8041,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -8049,7 +8049,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -8057,7 +8057,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -8065,7 +8065,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -8073,7 +8073,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -8081,7 +8081,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -8089,7 +8089,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -8097,7 +8097,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -8105,7 +8105,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -8113,7 +8113,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -8121,7 +8121,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -8129,7 +8129,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -8137,7 +8137,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -8145,7 +8145,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -8153,7 +8153,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -8161,7 +8161,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -8169,7 +8169,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -8177,7 +8177,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -8185,7 +8185,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -8193,7 +8193,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -8201,7 +8201,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -8209,7 +8209,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -8217,7 +8217,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -8225,7 +8225,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -8233,7 +8233,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -8241,7 +8241,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -8249,7 +8249,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -8442,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -8450,7 +8450,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -8458,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -8466,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -8474,7 +8474,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -8482,7 +8482,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -8490,7 +8490,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -8498,7 +8498,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -8506,7 +8506,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -8514,7 +8514,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -8522,7 +8522,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -8530,7 +8530,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -8538,7 +8538,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -8546,7 +8546,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -8554,7 +8554,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -8562,7 +8562,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -8570,7 +8570,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -8578,7 +8578,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -8586,7 +8586,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -8594,7 +8594,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -8602,7 +8602,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -8610,7 +8610,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -8618,7 +8618,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -8626,7 +8626,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -8634,7 +8634,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -8642,7 +8642,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -8650,7 +8650,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -8658,7 +8658,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -8666,7 +8666,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -8674,7 +8674,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -8682,7 +8682,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -8690,7 +8690,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -8698,7 +8698,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -8706,7 +8706,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -8714,7 +8714,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -8722,7 +8722,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -8730,7 +8730,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -8931,7 +8931,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -8939,7 +8939,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -8947,7 +8947,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -8955,7 +8955,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -8963,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -8971,7 +8971,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -8979,7 +8979,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -8987,7 +8987,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -8995,7 +8995,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -9003,7 +9003,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -9011,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -9019,7 +9019,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -9027,7 +9027,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -9035,7 +9035,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -9043,7 +9043,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -9051,7 +9051,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -9059,7 +9059,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -9067,7 +9067,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -9075,7 +9075,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -9083,7 +9083,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -9091,7 +9091,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -9099,7 +9099,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -9107,7 +9107,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -9115,7 +9115,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -9123,7 +9123,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -9131,7 +9131,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -9139,7 +9139,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -9147,7 +9147,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -9155,7 +9155,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -9163,7 +9163,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -9171,7 +9171,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -9179,7 +9179,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -9187,7 +9187,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -9195,7 +9195,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -9203,7 +9203,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -9211,7 +9211,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -9396,7 +9396,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -9404,7 +9404,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -9412,7 +9412,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -9420,7 +9420,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -9428,7 +9428,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -9436,7 +9436,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -9444,7 +9444,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -9452,7 +9452,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -9460,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -9468,7 +9468,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -9476,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -9484,7 +9484,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -9492,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -9500,7 +9500,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -9508,7 +9508,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -9516,7 +9516,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -9524,7 +9524,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -9532,7 +9532,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -9540,7 +9540,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -9548,7 +9548,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -9556,7 +9556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -9564,7 +9564,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -9572,7 +9572,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -9580,7 +9580,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -9588,7 +9588,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -9596,7 +9596,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -9604,7 +9604,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -9612,7 +9612,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -9620,7 +9620,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -9628,7 +9628,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -9636,7 +9636,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -9644,7 +9644,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -9652,7 +9652,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -9660,7 +9660,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -9668,7 +9668,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -9676,7 +9676,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -9684,7 +9684,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -9692,7 +9692,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
